--- a/vbai-fhir/CodeSystem-immigration-status.xlsx
+++ b/vbai-fhir/CodeSystem-immigration-status.xlsx
@@ -299,10 +299,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-immigration-status.xlsx
+++ b/vbai-fhir/CodeSystem-immigration-status.xlsx
@@ -299,10 +299,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-immigration-status.xlsx
+++ b/vbai-fhir/CodeSystem-immigration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -299,10 +299,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/CodeSystem-immigration-status.xlsx
+++ b/vbai-fhir/CodeSystem-immigration-status.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire codes for immigration status</t>
+    <t>Immigration Status Classification Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The codes required for immigration status</t>
+    <t>A comprehensive set of codes representing different immigration statuses.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/vbai-fhir/CodeSystem-immigration-status.xlsx
+++ b/vbai-fhir/CodeSystem-immigration-status.xlsx
@@ -144,10 +144,10 @@
     <t>Permanent Resident</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Non-citizen US/CAD national</t>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Foreign national</t>
   </si>
   <si>
     <t>R</t>

--- a/vbai-fhir/CodeSystem-immigration-status.xlsx
+++ b/vbai-fhir/CodeSystem-immigration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/vbai-fhir/CodeSystem-immigration-status.xlsx
+++ b/vbai-fhir/CodeSystem-immigration-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
